--- a/T4Dir/Data_Store.xlsx
+++ b/T4Dir/Data_Store.xlsx
@@ -1,39 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tims1\Documents\GitHub\Yr12-Minor\T4Dir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0D3C8C-FEF6-42A3-92BA-0CE33974413D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F2B8A7-F3ED-4A42-B8E2-4B364A077408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{B740E82F-A9A7-410E-8851-6BF06EF612A9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employers" sheetId="1" r:id="rId1"/>
     <sheet name="Employees" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,11 +370,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E331BC-E725-42DF-A15E-A796C1BE7144}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -396,10 +384,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6814541D-2A8E-40F1-8092-5C1001795298}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>

--- a/T4Dir/Data_Store.xlsx
+++ b/T4Dir/Data_Store.xlsx
@@ -1,43 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tims1\Documents\GitHub\Yr12-Minor\T4Dir\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F2B8A7-F3ED-4A42-B8E2-4B364A077408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Employers" sheetId="1" r:id="rId1"/>
-    <sheet name="Employees" sheetId="2" r:id="rId2"/>
+    <sheet name="Employers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Employees" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -56,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -370,28 +420,1437 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>A corp</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>a st</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>On site</t>
+        </is>
+      </c>
+      <c r="E1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>a@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>B corp</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>b st</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Off site</t>
+        </is>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>b@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>C corp</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>c st</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>c@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>D corp</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>d st</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>d@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>E corp</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>e st</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Off site</t>
+        </is>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>e@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F corp</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>f st</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>f@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>G corp</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>g st</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Off site</t>
+        </is>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>g@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>H corp</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>h st</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>On site</t>
+        </is>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>h@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>I corp</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>i st</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Off site</t>
+        </is>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>i@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>J corp</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>j st</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>On site</t>
+        </is>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>j@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>K corp</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>k st</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>k@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>L corp</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>l st</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Off site</t>
+        </is>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>l@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>M corp</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>m st</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>On site</t>
+        </is>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>m@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>N corp</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>n st</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>On site</t>
+        </is>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>n@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>O corp</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>o st</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>On site</t>
+        </is>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>o@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>P corp</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>p st</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>p@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Q corp</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>q st</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>On site</t>
+        </is>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>q@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>R corp</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>r st</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>On site</t>
+        </is>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>r@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>S corp</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>s st</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>On site</t>
+        </is>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>s@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>T corp</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>t st</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>t@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>U corp</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>u st</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>On site</t>
+        </is>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>u@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>V corp</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>v st</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Off site</t>
+        </is>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>v@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>W corp</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>w st</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Off site</t>
+        </is>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>w@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>X corp</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>x st</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>On site</t>
+        </is>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>x@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Y corp</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>y st</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Off site</t>
+        </is>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>y@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Z corp</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>z st</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>z@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>AA corp</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>aa st</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>On site</t>
+        </is>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>aa@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>AB corp</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ab st</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>On site</t>
+        </is>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>ab@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>AC corp</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ac st</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>On site</t>
+        </is>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>ac@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>AD corp</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ad st</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>On site</t>
+        </is>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>ad@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>AE corp</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ae st</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Off site</t>
+        </is>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>ae@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>AF corp</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>af st</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Off site</t>
+        </is>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>af@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>AG corp</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ag st</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>ag@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>AH corp</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ah st</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>ah@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>AI corp</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ai st</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Off site</t>
+        </is>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>ai@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>AJ corp</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>aj st</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>On site</t>
+        </is>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>aj@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>AK corp</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ak st</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Off site</t>
+        </is>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>ak@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>AL corp</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>al st</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>al@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>AM corp</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>am st</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>On site</t>
+        </is>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>am@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>AN corp</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>an st</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>an@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>AO corp</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>ao st</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Off site</t>
+        </is>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>ao@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>AP corp</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>ap st</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>ap@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>AQ corp</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>aq st</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>aq@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>AR corp</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>ar st</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>ar@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>AS corp</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>as st</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Off site</t>
+        </is>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>as@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>AT corp</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>at st</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>On site</t>
+        </is>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>at@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>AU corp</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>au st</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>au@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>AV corp</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>av st</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Off site</t>
+        </is>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>av@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AW corp</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>aw st</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>aw@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>AX corp</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>ax st</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>ax@gmail.com</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/T4Dir/Data_Store.xlsx
+++ b/T4Dir/Data_Store.xlsx
@@ -1871,9 +1871,9 @@
           <t>T corp</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>a@gmail.com</t>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>asdfhuifwae</t>
         </is>
       </c>
     </row>

--- a/T4Dir/Data_Store.xlsx
+++ b/T4Dir/Data_Store.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1830,6 +1830,34 @@
       <c r="F50" t="inlineStr">
         <is>
           <t>ax@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Tim Corp</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Tim st</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>tims11105@gmail.com</t>
         </is>
       </c>
     </row>
